--- a/record_table.xlsx
+++ b/record_table.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\git_projects\IowaHousingPricePrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{923504AB-66BB-41E1-8228-6201C27725C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60A05D26-DACD-447B-9F82-F930007C79D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{ECA4D294-99FF-4A27-931A-C37979912E51}"/>
+    <workbookView xWindow="8265" yWindow="3840" windowWidth="28800" windowHeight="15885" xr2:uid="{ECA4D294-99FF-4A27-931A-C37979912E51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="106">
   <si>
     <t>Feature Engineering</t>
   </si>
@@ -118,13 +120,244 @@
   </si>
   <si>
     <t>lot front group by townhall</t>
+  </si>
+  <si>
+    <t>LotFrontage</t>
+  </si>
+  <si>
+    <t>Missing Column:</t>
+  </si>
+  <si>
+    <t>Alley</t>
+  </si>
+  <si>
+    <t>MasVnrType</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Missing type:</t>
+  </si>
+  <si>
+    <t>Imputation method</t>
+  </si>
+  <si>
+    <t>Imputation method 1</t>
+  </si>
+  <si>
+    <t>Imputation method 2</t>
+  </si>
+  <si>
+    <t>Linear feet of street connected to property</t>
+  </si>
+  <si>
+    <t>MCAR</t>
+  </si>
+  <si>
+    <t>Missing number:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median value of  the group by neighborhood </t>
+  </si>
+  <si>
+    <t>Lot area times the avarage ratio of Lotfrontage and lot area.</t>
+  </si>
+  <si>
+    <t>Type of ally access to property</t>
+  </si>
+  <si>
+    <t>MNAR</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Masonry veneer type</t>
+  </si>
+  <si>
+    <t>MasVnrArea</t>
+  </si>
+  <si>
+    <t>Masonry veneer area in square feet</t>
+  </si>
+  <si>
+    <t>BsmtQual</t>
+  </si>
+  <si>
+    <t>Evaluates the height of the basement</t>
+  </si>
+  <si>
+    <t>BsmtCond</t>
+  </si>
+  <si>
+    <t>Evaluates the general condition of the basement</t>
+  </si>
+  <si>
+    <t>BsmtExposure</t>
+  </si>
+  <si>
+    <t>Refers to walkout or garden level walls</t>
+  </si>
+  <si>
+    <t>BsmtFinType1</t>
+  </si>
+  <si>
+    <t>Rating of basement finished area</t>
+  </si>
+  <si>
+    <t>BsmtFinType2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rating of basement finished area </t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>FireplaceQu</t>
+  </si>
+  <si>
+    <t>Fireplace quality</t>
+  </si>
+  <si>
+    <t>GarageType</t>
+  </si>
+  <si>
+    <t>Type of garage</t>
+  </si>
+  <si>
+    <t>GarageYrBlt</t>
+  </si>
+  <si>
+    <t>Year garage was built</t>
+  </si>
+  <si>
+    <t>GarageFinish</t>
+  </si>
+  <si>
+    <t>Interior finish of the garage</t>
+  </si>
+  <si>
+    <t>GarageQual</t>
+  </si>
+  <si>
+    <t>Garage quality</t>
+  </si>
+  <si>
+    <t>GarageCond</t>
+  </si>
+  <si>
+    <t>Garage condition</t>
+  </si>
+  <si>
+    <t>PoolQC</t>
+  </si>
+  <si>
+    <t>Pool quality</t>
+  </si>
+  <si>
+    <t>Fence</t>
+  </si>
+  <si>
+    <t>Fence quality</t>
+  </si>
+  <si>
+    <t>MiscFeature</t>
+  </si>
+  <si>
+    <t>Miscellaneous feature not covered in other categories</t>
+  </si>
+  <si>
+    <t>Min GarageYr Blt</t>
+  </si>
+  <si>
+    <t>total bathroom number</t>
+  </si>
+  <si>
+    <t>total house area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total bedroom number </t>
+  </si>
+  <si>
+    <t>kitchen number</t>
+  </si>
+  <si>
+    <t>total room number</t>
+  </si>
+  <si>
+    <t>garage cars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bedroom number </t>
+  </si>
+  <si>
+    <t>total bedroom number</t>
+  </si>
+  <si>
+    <t>method 1</t>
+  </si>
+  <si>
+    <t>eNet</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Random Froest</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>method 2</t>
+  </si>
+  <si>
+    <t>Kaggle RMSE</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>transform, year build</t>
+  </si>
+  <si>
+    <t>imput Garage year blt with hourse -10</t>
+  </si>
+  <si>
+    <t>transform with +0.01</t>
+  </si>
+  <si>
+    <t>Impute lotfrontage with mean</t>
+  </si>
+  <si>
+    <t>Impute with random</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +370,26 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF47494D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF47494D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,12 +412,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CC01D1-4F42-4C91-BCA8-AC47C3BDB818}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" activeCellId="3" sqref="I12 I14 I16 I18"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,8 +1352,1038 @@
         <v>0.93990445298373404</v>
       </c>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.93045900000000004</v>
+      </c>
+      <c r="E24" s="6">
+        <v>9.2309999999999996E-3</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.95088928076287804</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.13732</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.93873700000000004</v>
+      </c>
+      <c r="E25" s="6">
+        <v>8.6529999999999992E-3</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.93919197130867305</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.12038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.93010999999999999</v>
+      </c>
+      <c r="E26" s="6">
+        <v>9.2540000000000001E-3</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.95081759086659401</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.13747999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.92941600000000002</v>
+      </c>
+      <c r="E28" s="6">
+        <v>9.2790000000000008E-3</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.94866053410957096</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.93920999999999999</v>
+      </c>
+      <c r="E29" s="6">
+        <v>8.6199999999999992E-3</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.93868042831690501</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.12024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.92941600000000002</v>
+      </c>
+      <c r="E30" s="6">
+        <v>9.2790000000000008E-3</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.94866053414520601</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.931925</v>
+      </c>
+      <c r="E32" s="6">
+        <v>9.1319999999999995E-3</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.95108202268710595</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.93559199999999998</v>
+      </c>
+      <c r="E33" s="6">
+        <v>8.8400000000000006E-3</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.93897082251269903</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.1201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.93160399999999999</v>
+      </c>
+      <c r="E34" s="6">
+        <v>9.1540000000000007E-3</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.95100545958600102</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.85295799999999999</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.163824</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.84829200000000005</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.16617999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.85626800000000003</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.16589400000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.882957167338145</v>
+      </c>
+      <c r="C45" s="1">
+        <v>8.9700000000000005E-3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.91223438465387197</v>
+      </c>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.91077350997574802</v>
+      </c>
+      <c r="C46" s="1">
+        <v>8.4519999999999994E-3</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.92249318383339496</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.11694</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.88295707097519904</v>
+      </c>
+      <c r="C47" s="1">
+        <v>8.9700000000000005E-3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.912234311205391</v>
+      </c>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.76233334930793895</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.5927E-2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.80718109001812599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.87023045010512101</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.1136E-2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.882487617792995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.92093136212757698</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.92114123202320697</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.92227838499654402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.92263418917989704</v>
+      </c>
+      <c r="E54">
+        <v>0.11705</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.922640349141292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>-620</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.922705349207259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.92266171453813295</v>
+      </c>
+      <c r="E57">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>1E-3</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.92266732914863303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>1E-4</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.92267102364847398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.922673615476995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.92267552329559499</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.92267698112551699</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>1E-8</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.922678128745969</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.92267905422833496</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>9.9999999999999994E-12</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.92268045238954899</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.92270797097355095</v>
+      </c>
+      <c r="E66" s="8">
+        <v>0.11697</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.925027187076087</v>
+      </c>
+      <c r="E67" s="8">
+        <v>0.1173</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC49DBB-2953-4176-8533-73A3A95F4B19}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4">
+        <v>259</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1369</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="4">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4">
+        <v>690</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4">
+        <v>81</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4">
+        <v>81</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4">
+        <v>81</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4">
+        <v>81</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4">
+        <v>81</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1453</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1179</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="4">
+        <v>140</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01AC6B6-539D-41A7-B709-A517A2428F64}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>